--- a/data/output/FV2304_FV2210/UTILMD/11215.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11215.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4290" uniqueCount="356">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4311" uniqueCount="356">
+  <si>
+    <t>Segmentname_FV2210</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2210</t>
+  </si>
+  <si>
+    <t>Segment_FV2210</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2210</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2210</t>
+  </si>
+  <si>
+    <t>Code_FV2210</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2210</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2210</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2210</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2304</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2304</t>
+  </si>
+  <si>
+    <t>Segment_FV2304</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2304</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2304</t>
+  </si>
+  <si>
+    <t>Code_FV2304</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2304</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2304</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2304</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1205,6 +1205,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U202" totalsRowShown="0">
+  <autoFilter ref="A1:U202"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2210"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2210"/>
+    <tableColumn id="3" name="Segment_FV2210"/>
+    <tableColumn id="4" name="Datenelement_FV2210"/>
+    <tableColumn id="5" name="Segment ID_FV2210"/>
+    <tableColumn id="6" name="Code_FV2210"/>
+    <tableColumn id="7" name="Qualifier_FV2210"/>
+    <tableColumn id="8" name="Beschreibung_FV2210"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2210"/>
+    <tableColumn id="10" name="Bedingung_FV2210"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2304"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2304"/>
+    <tableColumn id="14" name="Segment_FV2304"/>
+    <tableColumn id="15" name="Datenelement_FV2304"/>
+    <tableColumn id="16" name="Segment ID_FV2304"/>
+    <tableColumn id="17" name="Code_FV2304"/>
+    <tableColumn id="18" name="Qualifier_FV2304"/>
+    <tableColumn id="19" name="Beschreibung_FV2304"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2304"/>
+    <tableColumn id="21" name="Bedingung_FV2304"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1494,7 +1524,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U202"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -10715,5 +10748,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2304_FV2210/UTILMD/11215.xlsx
+++ b/data/output/FV2304_FV2210/UTILMD/11215.xlsx
@@ -2216,7 +2216,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="K9" s="2"/>
       <c r="L9" s="4"/>
-      <c r="M9" s="2" t="s">
+      <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N9" s="2"/>
@@ -2684,7 +2684,7 @@
       </c>
       <c r="K12" s="2"/>
       <c r="L12" s="4"/>
-      <c r="M12" s="2" t="s">
+      <c r="M12" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N12" s="2"/>
@@ -2872,7 +2872,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N16" s="2" t="s">
@@ -3168,7 +3168,7 @@
       </c>
       <c r="K22" s="2"/>
       <c r="L22" s="4"/>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -3354,7 +3354,7 @@
       </c>
       <c r="K26" s="2"/>
       <c r="L26" s="4"/>
-      <c r="M26" s="2" t="s">
+      <c r="M26" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N26" s="2" t="s">
@@ -3714,7 +3714,7 @@
       </c>
       <c r="K33" s="2"/>
       <c r="L33" s="4"/>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N33" s="2" t="s">
@@ -4010,7 +4010,7 @@
       </c>
       <c r="K39" s="2"/>
       <c r="L39" s="4"/>
-      <c r="M39" s="2" t="s">
+      <c r="M39" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N39" s="2" t="s">
@@ -4198,7 +4198,7 @@
         <v>329</v>
       </c>
       <c r="L43" s="4"/>
-      <c r="M43" s="2" t="s">
+      <c r="M43" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N43" s="2" t="s">
@@ -4350,7 +4350,7 @@
       </c>
       <c r="K46" s="2"/>
       <c r="L46" s="4"/>
-      <c r="M46" s="2" t="s">
+      <c r="M46" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N46" s="2" t="s">
@@ -4496,7 +4496,7 @@
         <v>330</v>
       </c>
       <c r="L49" s="4"/>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N49" s="2" t="s">
@@ -4686,7 +4686,7 @@
       </c>
       <c r="K53" s="2"/>
       <c r="L53" s="4"/>
-      <c r="M53" s="2" t="s">
+      <c r="M53" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N53" s="2" t="s">
@@ -4874,7 +4874,7 @@
       </c>
       <c r="K57" s="2"/>
       <c r="L57" s="4"/>
-      <c r="M57" s="2" t="s">
+      <c r="M57" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N57" s="2" t="s">
@@ -5060,7 +5060,7 @@
         <v>329</v>
       </c>
       <c r="L61" s="4"/>
-      <c r="M61" s="2" t="s">
+      <c r="M61" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N61" s="2" t="s">
@@ -5198,7 +5198,7 @@
       </c>
       <c r="K64" s="2"/>
       <c r="L64" s="4"/>
-      <c r="M64" s="2" t="s">
+      <c r="M64" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N64" s="2" t="s">
@@ -5348,7 +5348,7 @@
         <v>333</v>
       </c>
       <c r="L67" s="4"/>
-      <c r="M67" s="2" t="s">
+      <c r="M67" s="3" t="s">
         <v>37</v>
       </c>
       <c r="N67" s="2" t="s">
@@ -5818,7 +5818,7 @@
         <v>337</v>
       </c>
       <c r="L76" s="4"/>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="3" t="s">
         <v>38</v>
       </c>
       <c r="N76" s="2" t="s">
@@ -6062,7 +6062,7 @@
       </c>
       <c r="K81" s="2"/>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6252,7 +6252,7 @@
         <v>339</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6392,7 +6392,7 @@
         <v>340</v>
       </c>
       <c r="L88" s="4"/>
-      <c r="M88" s="2" t="s">
+      <c r="M88" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N88" s="2" t="s">
@@ -6546,7 +6546,7 @@
         <v>342</v>
       </c>
       <c r="L91" s="4"/>
-      <c r="M91" s="2" t="s">
+      <c r="M91" s="3" t="s">
         <v>42</v>
       </c>
       <c r="N91" s="2" t="s">
@@ -6694,7 +6694,7 @@
         <v>339</v>
       </c>
       <c r="L94" s="4"/>
-      <c r="M94" s="2" t="s">
+      <c r="M94" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N94" s="2" t="s">
@@ -6882,7 +6882,7 @@
         <v>343</v>
       </c>
       <c r="L98" s="4"/>
-      <c r="M98" s="2" t="s">
+      <c r="M98" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N98" s="2" t="s">
@@ -7166,7 +7166,7 @@
         <v>339</v>
       </c>
       <c r="L104" s="4"/>
-      <c r="M104" s="2" t="s">
+      <c r="M104" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N104" s="2" t="s">
@@ -7564,7 +7564,7 @@
         <v>344</v>
       </c>
       <c r="L112" s="4"/>
-      <c r="M112" s="2" t="s">
+      <c r="M112" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N112" s="2" t="s">
@@ -7774,7 +7774,7 @@
         <v>339</v>
       </c>
       <c r="L116" s="4"/>
-      <c r="M116" s="2" t="s">
+      <c r="M116" s="3" t="s">
         <v>47</v>
       </c>
       <c r="N116" s="2" t="s">
@@ -8018,7 +8018,7 @@
       </c>
       <c r="K121" s="2"/>
       <c r="L121" s="4"/>
-      <c r="M121" s="2" t="s">
+      <c r="M121" s="3" t="s">
         <v>48</v>
       </c>
       <c r="N121" s="2" t="s">
@@ -8210,7 +8210,7 @@
         <v>346</v>
       </c>
       <c r="L125" s="4"/>
-      <c r="M125" s="2" t="s">
+      <c r="M125" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N125" s="2" t="s">
@@ -8416,7 +8416,7 @@
         <v>347</v>
       </c>
       <c r="L129" s="4"/>
-      <c r="M129" s="2" t="s">
+      <c r="M129" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N129" s="2" t="s">
@@ -8554,7 +8554,7 @@
       </c>
       <c r="K132" s="2"/>
       <c r="L132" s="4"/>
-      <c r="M132" s="2" t="s">
+      <c r="M132" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N132" s="2" t="s">
@@ -8704,7 +8704,7 @@
       </c>
       <c r="K135" s="2"/>
       <c r="L135" s="4"/>
-      <c r="M135" s="2" t="s">
+      <c r="M135" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N135" s="2" t="s">
@@ -8906,7 +8906,7 @@
       </c>
       <c r="K139" s="2"/>
       <c r="L139" s="4"/>
-      <c r="M139" s="2" t="s">
+      <c r="M139" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N139" s="2" t="s">
@@ -9042,7 +9042,7 @@
       </c>
       <c r="K142" s="2"/>
       <c r="L142" s="4"/>
-      <c r="M142" s="2" t="s">
+      <c r="M142" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N142" s="2" t="s">
@@ -9192,7 +9192,7 @@
         <v>349</v>
       </c>
       <c r="L145" s="4"/>
-      <c r="M145" s="2" t="s">
+      <c r="M145" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N145" s="2" t="s">
@@ -9330,7 +9330,7 @@
       </c>
       <c r="K148" s="2"/>
       <c r="L148" s="4"/>
-      <c r="M148" s="2" t="s">
+      <c r="M148" s="3" t="s">
         <v>55</v>
       </c>
       <c r="N148" s="2" t="s">
@@ -9480,7 +9480,7 @@
         <v>350</v>
       </c>
       <c r="L151" s="4"/>
-      <c r="M151" s="2" t="s">
+      <c r="M151" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N151" s="2" t="s">
@@ -9724,7 +9724,7 @@
       </c>
       <c r="K156" s="2"/>
       <c r="L156" s="4"/>
-      <c r="M156" s="2" t="s">
+      <c r="M156" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N156" s="2" t="s">
@@ -9860,7 +9860,7 @@
       </c>
       <c r="K159" s="2"/>
       <c r="L159" s="4"/>
-      <c r="M159" s="2" t="s">
+      <c r="M159" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N159" s="2" t="s">
@@ -10004,7 +10004,7 @@
       </c>
       <c r="K162" s="2"/>
       <c r="L162" s="4"/>
-      <c r="M162" s="2" t="s">
+      <c r="M162" s="3" t="s">
         <v>57</v>
       </c>
       <c r="N162" s="2" t="s">
@@ -10188,7 +10188,7 @@
       </c>
       <c r="K166" s="2"/>
       <c r="L166" s="4"/>
-      <c r="M166" s="2" t="s">
+      <c r="M166" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N166" s="2" t="s">
@@ -10432,7 +10432,7 @@
         <v>352</v>
       </c>
       <c r="L171" s="4"/>
-      <c r="M171" s="2" t="s">
+      <c r="M171" s="3" t="s">
         <v>59</v>
       </c>
       <c r="N171" s="2" t="s">
@@ -10570,7 +10570,7 @@
       </c>
       <c r="K174" s="2"/>
       <c r="L174" s="4"/>
-      <c r="M174" s="2" t="s">
+      <c r="M174" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N174" s="2" t="s">
@@ -10720,7 +10720,7 @@
       </c>
       <c r="K177" s="2"/>
       <c r="L177" s="4"/>
-      <c r="M177" s="2" t="s">
+      <c r="M177" s="3" t="s">
         <v>61</v>
       </c>
       <c r="N177" s="2" t="s">
@@ -10922,7 +10922,7 @@
       </c>
       <c r="K181" s="2"/>
       <c r="L181" s="4"/>
-      <c r="M181" s="2" t="s">
+      <c r="M181" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N181" s="2" t="s">
@@ -11058,7 +11058,7 @@
       </c>
       <c r="K184" s="2"/>
       <c r="L184" s="4"/>
-      <c r="M184" s="2" t="s">
+      <c r="M184" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N184" s="2" t="s">
@@ -11208,7 +11208,7 @@
         <v>354</v>
       </c>
       <c r="L187" s="4"/>
-      <c r="M187" s="2" t="s">
+      <c r="M187" s="3" t="s">
         <v>62</v>
       </c>
       <c r="N187" s="2" t="s">
@@ -11346,7 +11346,7 @@
       </c>
       <c r="K190" s="2"/>
       <c r="L190" s="4"/>
-      <c r="M190" s="2" t="s">
+      <c r="M190" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N190" s="2" t="s">
@@ -11494,7 +11494,7 @@
       </c>
       <c r="K193" s="2"/>
       <c r="L193" s="4"/>
-      <c r="M193" s="2" t="s">
+      <c r="M193" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N193" s="2" t="s">
@@ -11836,7 +11836,7 @@
       </c>
       <c r="K200" s="2"/>
       <c r="L200" s="4"/>
-      <c r="M200" s="2" t="s">
+      <c r="M200" s="3" t="s">
         <v>64</v>
       </c>
       <c r="N200" s="2"/>
